--- a/Income/CHTR_inc.xlsx
+++ b/Income/CHTR_inc.xlsx
@@ -377,7 +377,7 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>30549000000.0</v>
+        <v>30683000000.0</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>30760000000.0</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>18332000000.0</v>
+        <v>18198000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>17337000000.0</v>
@@ -2044,10 +2044,8 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>0.375</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0.3605</v>
@@ -2173,10 +2171,8 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>0.1774</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.1748</v>
@@ -2302,10 +2298,8 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>0.1011</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.0894</v>
@@ -2431,10 +2425,8 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>0.0743</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.067</v>
@@ -2560,10 +2552,8 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>0.1402</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.1389</v>
@@ -2689,10 +2679,8 @@
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>18370000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>18167000000.0</v>
@@ -3580,10 +3568,8 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0.3777</v>
@@ -3709,10 +3695,8 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>0.3088</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0.3028</v>
